--- a/summary_stat_folder/figure_5B_runs_separate.xlsx
+++ b/summary_stat_folder/figure_5B_runs_separate.xlsx
@@ -35,25 +35,25 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">134</t>
+    <t xml:space="preserve">133</t>
   </si>
   <si>
     <t xml:space="preserve">18</t>
   </si>
   <si>
-    <t xml:space="preserve">285</t>
+    <t xml:space="preserve">278</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">173</t>
+    <t xml:space="preserve">171</t>
   </si>
   <si>
     <t xml:space="preserve">20</t>
   </si>
   <si>
-    <t xml:space="preserve">244</t>
+    <t xml:space="preserve">238</t>
   </si>
   <si>
     <t xml:space="preserve">JMI</t>
